--- a/biology/Médecine/Pilomatrixome/Pilomatrixome.xlsx
+++ b/biology/Médecine/Pilomatrixome/Pilomatrixome.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le pilomatrixome (ou "pilomatricome", ou "épithéliome calcifié de Malherbe") est une tumeur bénigne cutanée d'origine annexielle folliculaire. La tumeur survient surtout chez les enfants et les adolescents avec prédominence féminine et se localise au niveau de la tête et du cou[1]. Cliniquement on trouvera fréquemment un nodule sous-cutané unique, de taille inférieure à 3 cm et asymptomatique (parfois douloureux)[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le pilomatrixome (ou "pilomatricome", ou "épithéliome calcifié de Malherbe") est une tumeur bénigne cutanée d'origine annexielle folliculaire. La tumeur survient surtout chez les enfants et les adolescents avec prédominence féminine et se localise au niveau de la tête et du cou. Cliniquement on trouvera fréquemment un nodule sous-cutané unique, de taille inférieure à 3 cm et asymptomatique (parfois douloureux).
 </t>
         </is>
       </c>
